--- a/Resultados/RESULTADOS_9.xlsx
+++ b/Resultados/RESULTADOS_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="E2" t="n">
-        <v>70.33</v>
+        <v>87.66</v>
       </c>
       <c r="F2" t="n">
         <v>60.8</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="E3" t="n">
-        <v>41.95</v>
+        <v>47.09</v>
       </c>
       <c r="F3" t="n">
         <v>37.3</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="E4" t="n">
-        <v>37.4</v>
+        <v>40.43</v>
       </c>
       <c r="F4" t="n">
         <v>33.59</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.81</v>
+        <v>2.65</v>
       </c>
       <c r="E5" t="n">
-        <v>35.54</v>
+        <v>37.68</v>
       </c>
       <c r="F5" t="n">
         <v>32.09</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="E6" t="n">
-        <v>34.43</v>
+        <v>36.07</v>
       </c>
       <c r="F6" t="n">
         <v>31.18</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="E7" t="n">
-        <v>34.37</v>
+        <v>35.73</v>
       </c>
       <c r="F7" t="n">
         <v>31.23</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.99</v>
+        <v>2.89</v>
       </c>
       <c r="E8" t="n">
-        <v>33.46</v>
+        <v>34.58</v>
       </c>
       <c r="F8" t="n">
         <v>30.43</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="E9" t="n">
-        <v>33.1</v>
+        <v>34.05</v>
       </c>
       <c r="F9" t="n">
         <v>30.13</v>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="E10" t="n">
-        <v>32.87</v>
+        <v>33.71</v>
       </c>
       <c r="F10" t="n">
         <v>29.94</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="E11" t="n">
-        <v>32.46</v>
+        <v>33.18</v>
       </c>
       <c r="F11" t="n">
         <v>29.58</v>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="E12" t="n">
-        <v>32.56</v>
+        <v>33.2</v>
       </c>
       <c r="F12" t="n">
         <v>29.71</v>
@@ -1459,6 +1459,826 @@
         <v>1</v>
       </c>
       <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="G13" t="n">
+        <v>77.04000000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>212.16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>21</v>
+      </c>
+      <c r="N13" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="O13" t="n">
+        <v>26400.51</v>
+      </c>
+      <c r="P13" t="n">
+        <v>360.1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R13" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>18046.81</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>63.49</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>84.06</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>213.78</v>
+      </c>
+      <c r="K14" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13</v>
+      </c>
+      <c r="M14" t="n">
+        <v>19</v>
+      </c>
+      <c r="N14" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>26600.32</v>
+      </c>
+      <c r="P14" t="n">
+        <v>352.92</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R14" t="n">
+        <v>133.23</v>
+      </c>
+      <c r="S14" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>16222.72</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>64.41</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="G15" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19</v>
+      </c>
+      <c r="J15" t="n">
+        <v>215.41</v>
+      </c>
+      <c r="K15" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L15" t="n">
+        <v>14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>17</v>
+      </c>
+      <c r="N15" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="O15" t="n">
+        <v>26801</v>
+      </c>
+      <c r="P15" t="n">
+        <v>345.35</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R15" t="n">
+        <v>126.54</v>
+      </c>
+      <c r="S15" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>12888.07</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>65.14</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="G16" t="n">
+        <v>97.97</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18</v>
+      </c>
+      <c r="J16" t="n">
+        <v>217.04</v>
+      </c>
+      <c r="K16" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16</v>
+      </c>
+      <c r="N16" t="n">
+        <v>47.66</v>
+      </c>
+      <c r="O16" t="n">
+        <v>27002.55</v>
+      </c>
+      <c r="P16" t="n">
+        <v>342.17</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>132.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>15841.15</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X16" t="n">
+        <v>66.03</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>109.53</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>218.68</v>
+      </c>
+      <c r="K17" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
+        <v>14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="O17" t="n">
+        <v>27204.98</v>
+      </c>
+      <c r="P17" t="n">
+        <v>334.39</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R17" t="n">
+        <v>126</v>
+      </c>
+      <c r="S17" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>12629.32</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X17" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="G18" t="n">
+        <v>116.56</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>220.33</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>17</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>48.95</v>
+      </c>
+      <c r="O18" t="n">
+        <v>27408.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>328.39</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R18" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11385.52</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="F19" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="G19" t="n">
+        <v>124.64</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>221.99</v>
+      </c>
+      <c r="K19" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9</v>
+      </c>
+      <c r="N19" t="n">
+        <v>49.61</v>
+      </c>
+      <c r="O19" t="n">
+        <v>27612.53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>322.06</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>121.57</v>
+      </c>
+      <c r="S19" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T19" t="n">
+        <v>10426.05</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X19" t="n">
+        <v>67.95</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>124.48</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14</v>
+      </c>
+      <c r="J20" t="n">
+        <v>223.65</v>
+      </c>
+      <c r="K20" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L20" t="n">
+        <v>19</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>50.27</v>
+      </c>
+      <c r="O20" t="n">
+        <v>27817.81</v>
+      </c>
+      <c r="P20" t="n">
+        <v>319.43</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R20" t="n">
+        <v>120.12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>9702.559999999999</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X20" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="G21" t="n">
+        <v>124.59</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>225.32</v>
+      </c>
+      <c r="K21" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="O21" t="n">
+        <v>28023.89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>317.61</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R21" t="n">
+        <v>120.78</v>
+      </c>
+      <c r="S21" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T21" t="n">
+        <v>10031.32</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29</v>
+      </c>
+      <c r="G22" t="n">
+        <v>133.86</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>227</v>
+      </c>
+      <c r="K22" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="L22" t="n">
+        <v>21</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>51.62</v>
+      </c>
+      <c r="O22" t="n">
+        <v>28230.92</v>
+      </c>
+      <c r="P22" t="n">
+        <v>317.93</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8844.65</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>69.56</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
         <v>10</v>
       </c>
     </row>
